--- a/datasets/stocks.xlsx
+++ b/datasets/stocks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>editable</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>default_view</t>
   </si>
   <si>
     <t>UUID</t>
@@ -166,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,13 +255,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -292,7 +324,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1608,14 +1643,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1631,14 +1666,19 @@
       <c r="D1" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s" s="13">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="5">
         <v>0</v>
@@ -1646,14 +1686,19 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="9">
         <v>1</v>
@@ -1661,14 +1706,19 @@
       <c r="D3" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" t="b" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="9">
         <v>2</v>
@@ -1676,14 +1726,19 @@
       <c r="D4" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" t="b" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="9">
         <v>3</v>
@@ -1691,14 +1746,19 @@
       <c r="D5" t="b" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" t="b" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s" s="9">
         <v>4</v>
@@ -1706,7 +1766,12 @@
       <c r="D6" t="b" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" t="b" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4"/>
@@ -1714,6 +1779,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="8"/>
@@ -1721,6 +1787,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="8"/>
@@ -1728,6 +1795,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="8"/>
@@ -1735,6 +1803,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
